--- a/biology/Zoologie/Bécarde_cannelle/Bécarde_cannelle.xlsx
+++ b/biology/Zoologie/Bécarde_cannelle/Bécarde_cannelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9carde_cannelle</t>
+          <t>Bécarde_cannelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachyramphus cinnamomeus
 La Bécarde cannelle (Pachyramphus cinnamomeus) est une espèce de passereaux de la famille des Tityridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9carde_cannelle</t>
+          <t>Bécarde_cannelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bécarde cannelle mesure entre 14 et 15 centimètres. Elle a la 9e primaire très courte et fortement pointue. Le dessus, incluant la queue, est roux-fauve avec certains endroits plus marqués. Les primaires et les secondaires sont sombres bordées de fauve avec l'extérieur des primaires légèrement plus foncé. Les grandes ailes sont légèrement plus pâles que le reste. Le dessus de l'œil est discrètement barré de noir. Une étroite bande chamois part du dessus des lores gris clair jusqu'à la base du bec. Le dessous va du chamois au chamois-fauve avec le menton plus pâle; Les axillaires, les bords et le dessous des ailes vont de chamois à fauve[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bécarde cannelle mesure entre 14 et 15 centimètres. Elle a la 9e primaire très courte et fortement pointue. Le dessus, incluant la queue, est roux-fauve avec certains endroits plus marqués. Les primaires et les secondaires sont sombres bordées de fauve avec l'extérieur des primaires légèrement plus foncé. Les grandes ailes sont légèrement plus pâles que le reste. Le dessus de l'œil est discrètement barré de noir. Une étroite bande chamois part du dessus des lores gris clair jusqu'à la base du bec. Le dessous va du chamois au chamois-fauve avec le menton plus pâle; Les axillaires, les bords et le dessous des ailes vont de chamois à fauve.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9carde_cannelle</t>
+          <t>Bécarde_cannelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bécarde cannelle se rencontre au Belize (à l'exclusion du nord), en Colombie (à l'exclusion du sud-est), sur la côte de la mer des Caraïbes ainsi que sur la côte Pacifique et le nord du Costa Rica, à l'ouest de l'Équateur, au Guatemala (à l'exclusion du sud), au sud-est et sur la côte de la mer des Caraïbes du Honduras, au Mexique (état du Chiapas, de Tabasco et de Veracruz), du nord au sud du Nicaragua, au sud, sur la côte de la mer des Caraïbes ainsi qu'une présence sur la côte du Pacifique du Panama et une petite poche au sud-ouest du Venezuela[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bécarde cannelle se rencontre au Belize (à l'exclusion du nord), en Colombie (à l'exclusion du sud-est), sur la côte de la mer des Caraïbes ainsi que sur la côte Pacifique et le nord du Costa Rica, à l'ouest de l'Équateur, au Guatemala (à l'exclusion du sud), au sud-est et sur la côte de la mer des Caraïbes du Honduras, au Mexique (état du Chiapas, de Tabasco et de Veracruz), du nord au sud du Nicaragua, au sud, sur la côte de la mer des Caraïbes ainsi qu'une présence sur la côte du Pacifique du Panama et une petite poche au sud-ouest du Venezuela.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9carde_cannelle</t>
+          <t>Bécarde_cannelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle fréquente les lisières des forêts humides, des forêts secondaires, les clairières, les plantations et les mangroves[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fréquente les lisières des forêts humides, des forêts secondaires, les clairières, les plantations et les mangroves.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9carde_cannelle</t>
+          <t>Bécarde_cannelle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 9.1, 2019) du Congrès ornithologique international, cette espèce est constituée des quatre sous-espèces suivantes (ordre phylogénique) :
 Pachyramphus cinnamomeus fulvidior Griscom, 1932
